--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B83060-0D72-4D59-B743-CA8DC34C3338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB42B79-7138-4756-B91F-A6CE9B6C9549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
   <si>
     <t>title</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>/talks/ohbm2020</t>
   </si>
 </sst>
 </file>
@@ -544,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1093,7 @@
         <v>30</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB42B79-7138-4756-B91F-A6CE9B6C9549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8277AC-3090-49E1-9752-0253A220DF94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
   <si>
     <t>title</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>/talks/ohbm2020</t>
+  </si>
+  <si>
+    <t>vandekar</t>
+  </si>
+  <si>
+    <t>Reading group: Faster family-wise error control for neuroimaging with a parametric bootstrap</t>
   </si>
 </sst>
 </file>
@@ -545,28 +551,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.7265625" customWidth="1"/>
+    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" customWidth="1"/>
+    <col min="16" max="16" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,7 +613,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -648,7 +654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -689,7 +695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -730,7 +736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -771,7 +777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -812,7 +818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -853,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -894,7 +900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -935,7 +941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -976,7 +982,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1094,6 +1100,47 @@
       </c>
       <c r="M13" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44244</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.5625</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8277AC-3090-49E1-9752-0253A220DF94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341566A-BB1B-4DE5-8317-D639EE72D1DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
   <si>
     <t>title</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Reading group: Faster family-wise error control for neuroimaging with a parametric bootstrap</t>
+  </si>
+  <si>
+    <t>fmrib</t>
+  </si>
+  <si>
+    <t>selinf</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,6 +1149,47 @@
         <v>30</v>
       </c>
     </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6341566A-BB1B-4DE5-8317-D639EE72D1DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA2814-00E1-4B46-A3EC-3600C88C4857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -200,10 +200,10 @@
     <t>Reading group: Faster family-wise error control for neuroimaging with a parametric bootstrap</t>
   </si>
   <si>
-    <t>fmrib</t>
-  </si>
-  <si>
     <t>selinf</t>
+  </si>
+  <si>
+    <t>FMRIB</t>
   </si>
 </sst>
 </file>
@@ -560,7 +560,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1160,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1169,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FA2814-00E1-4B46-A3EC-3600C88C4857}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC758930-9D7F-4C3A-9C68-4429173D759C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
   <si>
     <t>title</t>
   </si>
@@ -204,6 +204,15 @@
   </si>
   <si>
     <t>FMRIB</t>
+  </si>
+  <si>
+    <t>Centre Inria-Saclay</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Parietal Group</t>
   </si>
 </sst>
 </file>
@@ -557,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1190,6 +1199,47 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44319</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC758930-9D7F-4C3A-9C68-4429173D759C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7345F4-EA3C-448F-AE14-1AEA517090A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1204,7 +1204,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1">
-        <v>44319</v>
+        <v>44320</v>
       </c>
       <c r="C16" s="2">
         <v>0.58333333333333337</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7345F4-EA3C-448F-AE14-1AEA517090A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CAE0E-FF74-40CA-AD99-A366400D57D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="63">
   <si>
     <t>title</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>Parietal Group</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Statistics Seminar</t>
+  </si>
+  <si>
+    <t>selinf2</t>
   </si>
 </sst>
 </file>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1240,6 +1249,47 @@
         <v>30</v>
       </c>
     </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44334</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7CAE0E-FF74-40CA-AD99-A366400D57D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB59BB7-7048-45BE-8E7A-24BA26925508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -215,13 +215,13 @@
     <t>Parietal Group</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
     <t>Statistics Seminar</t>
   </si>
   <si>
     <t>selinf2</t>
+  </si>
+  <si>
+    <t>University of Toulouse</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438357F9-BE09-4A9F-9EB8-B7B1EDBF9BF8}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1260,16 +1260,16 @@
         <v>0.46875</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB59BB7-7048-45BE-8E7A-24BA26925508}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3805F79-2746-4181-B88D-4A57F2046C93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -218,10 +218,10 @@
     <t>Statistics Seminar</t>
   </si>
   <si>
-    <t>selinf2</t>
-  </si>
-  <si>
     <t>University of Toulouse</t>
+  </si>
+  <si>
+    <t>selinfupdated</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1263,13 +1263,13 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
         <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H17" t="s">
         <v>30</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3805F79-2746-4181-B88D-4A57F2046C93}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4AEC00-00CB-438A-9E16-71B31DBDD1AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82B402EC-7ADA-46F6-91B9-B89EF33B58E2}"/>
   </bookViews>
@@ -589,7 +589,8 @@
     <col min="4" max="4" width="14.7265625" customWidth="1"/>
     <col min="5" max="5" width="14.54296875" customWidth="1"/>
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" customWidth="1"/>
     <col min="10" max="10" width="9.81640625" customWidth="1"/>
     <col min="11" max="11" width="11.453125" customWidth="1"/>
     <col min="12" max="12" width="14.453125" customWidth="1"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -215,18 +215,34 @@
   </si>
   <si>
     <t xml:space="preserve">US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP control via the Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sansouci Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bootfdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyrft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/talks/external/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +264,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -292,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -306,6 +330,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,21 +358,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.45"/>
@@ -1083,6 +1115,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4" t="n">
+        <v>37325</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD6C2C1-94A7-428A-92BC-30350B60E5B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66845F6B-2B4E-48D5-8EFD-7D384C34421D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>title</t>
   </si>
@@ -183,9 +183,6 @@
     <t>ohbm2020</t>
   </si>
   <si>
-    <t>/talks/ohbm2020</t>
-  </si>
-  <si>
     <t>Reading group: Faster family-wise error control for neuroimaging with a parametric bootstrap</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
   </si>
   <si>
     <t>pyrft</t>
-  </si>
-  <si>
-    <t>/talks/external/</t>
   </si>
 </sst>
 </file>
@@ -605,7 +599,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,12 +1145,12 @@
         <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1">
         <v>44244</v>
@@ -1174,7 +1168,7 @@
         <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
@@ -1206,7 +1200,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1215,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
@@ -1247,16 +1241,16 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="F16" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
@@ -1288,16 +1282,16 @@
         <v>0.46875</v>
       </c>
       <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
         <v>60</v>
       </c>
-      <c r="E17" t="s">
-        <v>61</v>
-      </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -1329,16 +1323,16 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>18</v>
@@ -1361,7 +1355,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="4">
         <v>44630</v>
@@ -1370,20 +1364,20 @@
         <v>0.70833333333333304</v>
       </c>
       <c r="D19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>67</v>
       </c>
-      <c r="H19" t="s">
-        <v>68</v>
-      </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1391,7 @@
         <v>18</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -236,7 +236,7 @@
     <numFmt numFmtId="166" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,6 +266,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,7 +316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +341,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,19 +364,19 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.45"/>
@@ -1151,6 +1161,9 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="B20" s="4" t="n">
         <v>44753</v>
       </c>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -236,7 +236,7 @@
     <numFmt numFmtId="166" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -266,12 +266,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -316,7 +310,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,10 +332,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -368,7 +358,7 @@
       <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.47265625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -1161,7 +1151,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="4" t="n">

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="77">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -224,17 +224,46 @@
   </si>
   <si>
     <t xml:space="preserve">pyrft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confidence regions for the location of peaks of a smooth random field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompStat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bologna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">peakcrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDP control in multivariate linear models using the bootstrap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/09/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP Conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="h:mm\ AM/PM"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="169" formatCode="hh:mm:ss"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -310,7 +339,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,6 +364,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,13 +393,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -1191,6 +1232,88 @@
         <v>18</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="6" t="n">
+        <v>44797</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>0.493055555555556</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0979BF3C-5090-4E1F-B394-6378DFC87E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DE276-C3D0-4A39-B895-26B82F26F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="77">
   <si>
     <t>title</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>Germany</t>
+  </si>
+  <si>
+    <t>peakCRs</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -309,6 +312,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1484,7 +1490,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s">
         <v>18</v>
@@ -1545,6 +1551,11 @@
       <c r="M22" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9DE276-C3D0-4A39-B895-26B82F26F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A97D3A61-13F7-4E9A-B6B7-C046B747F3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E4CEAC-94F3-4AF4-98D5-02FBE868D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25641EB-1AA9-4DAE-A1DF-4A5ACDC5ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
   <si>
     <t>title</t>
   </si>
@@ -647,7 +647,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,7 +1566,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
       <c r="B23" s="1">
         <v>44900</v>
       </c>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25641EB-1AA9-4DAE-A1DF-4A5ACDC5ACB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA69FE0-6A86-4180-B0D8-F397A0B011E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="82">
   <si>
     <t>title</t>
   </si>
@@ -268,9 +268,6 @@
   </si>
   <si>
     <t>peakCRs_long</t>
-  </si>
-  <si>
-    <t>https://github.com/sjdavenport/peakcrs</t>
   </si>
   <si>
     <t>https://arxiv.org/abs/2208.00251</t>
@@ -647,7 +644,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1591,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" t="s">
         <v>81</v>
-      </c>
-      <c r="J23" t="s">
-        <v>82</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA69FE0-6A86-4180-B0D8-F397A0B011E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EF266D-7229-4F3B-8E19-9EBA7D977200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="85">
   <si>
     <t>title</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2208.00251</t>
+  </si>
+  <si>
+    <t>Institut de mathématiques</t>
+  </si>
+  <si>
+    <t>voxRFT</t>
+  </si>
+  <si>
+    <t>https://sjdavenport.github.io/research/papers/thesis.pdf</t>
   </si>
 </sst>
 </file>
@@ -641,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,6 +1612,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44991</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="86">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://arxiv.org/abs/2208.00251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accurate voxelwise FWER control in fMRI using Random Field Theory</t>
   </si>
   <si>
     <t xml:space="preserve">Institut de mathematiques</t>
@@ -410,8 +413,8 @@
   </sheetPr>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>44991</v>
@@ -1381,7 +1384,7 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>60</v>
@@ -1390,7 +1393,7 @@
         <v>58</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>42</v>
@@ -1405,7 +1408,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>18</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E886B275-23A0-40B4-89E1-D11DCD03D945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30550B5A-81AF-4A38-A2FF-D8AA2B884BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="91">
   <si>
     <t>title</t>
   </si>
@@ -264,9 +264,6 @@
     <t>pyperm</t>
   </si>
   <si>
-    <t>uK</t>
-  </si>
-  <si>
     <t>peakCRs_long</t>
   </si>
   <si>
@@ -289,6 +286,18 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>PadovaRFTtalk</t>
+  </si>
+  <si>
+    <t>University of Padova</t>
+  </si>
+  <si>
+    <t>Inference using Random Field Theory</t>
+  </si>
+  <si>
+    <t>Conferenza Didactica</t>
   </si>
 </sst>
 </file>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1597,10 +1606,10 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>80</v>
       </c>
       <c r="H23" t="s">
         <v>18</v>
@@ -1609,7 +1618,7 @@
         <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s">
         <v>18</v>
@@ -1623,7 +1632,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1">
         <v>44991</v>
@@ -1632,7 +1641,7 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>60</v>
@@ -1641,7 +1650,7 @@
         <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -1656,7 +1665,7 @@
         <v>18</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
@@ -1664,7 +1673,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="1">
         <v>45049</v>
@@ -1676,13 +1685,13 @@
         <v>61</v>
       </c>
       <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
         <v>86</v>
       </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
       <c r="G25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s">
         <v>42</v>
@@ -1697,9 +1706,50 @@
         <v>18</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45068</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" t="s">
         <v>18</v>
       </c>
     </row>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30550B5A-81AF-4A38-A2FF-D8AA2B884BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF572D6A-CE7D-4FCE-BC1E-40FE6E4744C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="97">
   <si>
     <t>title</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>Conferenza Didactica</t>
+  </si>
+  <si>
+    <t>TDP control in regression</t>
+  </si>
+  <si>
+    <t>OHBM 2023 Educational Course</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2208.13724</t>
+  </si>
+  <si>
+    <t>https://github.com/sjdavenport/ohbm_course_2023</t>
+  </si>
+  <si>
+    <t>Practical on TDP inference in regression</t>
+  </si>
+  <si>
+    <t>OHBMtalk2023</t>
   </si>
 </sst>
 </file>
@@ -307,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -319,6 +337,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -341,10 +367,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -354,8 +381,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -668,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1577,7 +1606,7 @@
         <v>18</v>
       </c>
       <c r="J22" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s">
         <v>18</v>
@@ -1617,7 +1646,7 @@
       <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K23" t="s">
@@ -1664,7 +1693,7 @@
       <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="7" t="s">
         <v>84</v>
       </c>
       <c r="M24" t="s">
@@ -1705,7 +1734,7 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" s="7" t="s">
         <v>84</v>
       </c>
       <c r="M25" t="s">
@@ -1746,14 +1775,102 @@
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L26" s="7" t="s">
         <v>84</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45129</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45129</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>
+    <hyperlink ref="L25" r:id="rId2" xr:uid="{61D6BC00-B76E-422F-8E4B-EDC33803166F}"/>
+    <hyperlink ref="L24" r:id="rId3" xr:uid="{2474BBAE-F95A-4C7D-B341-F1D0F234DEA3}"/>
+    <hyperlink ref="J23" r:id="rId4" xr:uid="{64794B25-3132-4B24-9D8E-12336D7E5029}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF572D6A-CE7D-4FCE-BC1E-40FE6E4744C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5971A5-523C-4C5E-ACB2-C6C6C89CFD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1852,7 +1852,7 @@
         <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="K28" t="s">
         <v>18</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5971A5-523C-4C5E-ACB2-C6C6C89CFD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B831691-7CD9-4217-9E77-27F7108589E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="99">
   <si>
     <t>title</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>OHBMtalk2023</t>
+  </si>
+  <si>
+    <t>OHBM2023statstalk</t>
+  </si>
+  <si>
+    <t>OHBM Neuroimaging Statistics Workshop</t>
   </si>
 </sst>
 </file>
@@ -697,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1864,6 +1870,47 @@
         <v>94</v>
       </c>
     </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45134</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.4375</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>
@@ -1872,6 +1919,6 @@
     <hyperlink ref="J23" r:id="rId4" xr:uid="{64794B25-3132-4B24-9D8E-12336D7E5029}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
 </worksheet>
 </file>
--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B831691-7CD9-4217-9E77-27F7108589E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA3D8D-6564-46F4-B7EF-FA627D5604CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="101">
   <si>
     <t>title</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>OHBM Neuroimaging Statistics Workshop</t>
+  </si>
+  <si>
+    <t>Schwartzman Reading Group</t>
+  </si>
+  <si>
+    <t>San Diego</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,8 +1576,8 @@
       <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="J21" t="s">
-        <v>18</v>
+      <c r="J21" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="K21" t="s">
         <v>18</v>
@@ -1908,6 +1914,47 @@
         <v>18</v>
       </c>
       <c r="M29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45202</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1917,8 +1964,10 @@
     <hyperlink ref="L25" r:id="rId2" xr:uid="{61D6BC00-B76E-422F-8E4B-EDC33803166F}"/>
     <hyperlink ref="L24" r:id="rId3" xr:uid="{2474BBAE-F95A-4C7D-B341-F1D0F234DEA3}"/>
     <hyperlink ref="J23" r:id="rId4" xr:uid="{64794B25-3132-4B24-9D8E-12336D7E5029}"/>
+    <hyperlink ref="J21" r:id="rId5" xr:uid="{445B031B-ACB1-424D-BF69-D767E2556165}"/>
+    <hyperlink ref="J30" r:id="rId6" xr:uid="{C86C6D10-07B9-40A1-988D-DED703BD1FB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EA3D8D-6564-46F4-B7EF-FA627D5604CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CED01-D818-46EA-A9C4-1200D46F9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
   <si>
     <t>title</t>
   </si>
@@ -328,6 +328,24 @@
   </si>
   <si>
     <t>San Diego</t>
+  </si>
+  <si>
+    <t>Controlling False Positives in Neuroimaging</t>
+  </si>
+  <si>
+    <t>CMStatistics</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>cmstat</t>
+  </si>
+  <si>
+    <t>https://github.com/sjdavenport/ConvolutionFieldsNeuro</t>
+  </si>
+  <si>
+    <t>https://sjdavenport.github.io/research/papers/part2.pdf</t>
   </si>
 </sst>
 </file>
@@ -709,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1958,6 +1976,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45278</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
+        <v>104</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>
@@ -1966,8 +2025,9 @@
     <hyperlink ref="J23" r:id="rId4" xr:uid="{64794B25-3132-4B24-9D8E-12336D7E5029}"/>
     <hyperlink ref="J21" r:id="rId5" xr:uid="{445B031B-ACB1-424D-BF69-D767E2556165}"/>
     <hyperlink ref="J30" r:id="rId6" xr:uid="{C86C6D10-07B9-40A1-988D-DED703BD1FB2}"/>
+    <hyperlink ref="I31" r:id="rId7" xr:uid="{0675343E-A817-4A9B-89E0-65CBB3D9A6CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
 </worksheet>
 </file>
--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12SDa\davenpor\davenpor\Private_Projects\sjdavenport.github.io\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753CED01-D818-46EA-A9C4-1200D46F9ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9D20E-97AC-8746-BACC-A3425C525931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="113">
   <si>
     <t>title</t>
   </si>
@@ -346,15 +346,30 @@
   </si>
   <si>
     <t>https://sjdavenport.github.io/research/papers/part2.pdf</t>
+  </si>
+  <si>
+    <t>Smooth logistic mass univariate inference for MS lesion data using sign-flipping</t>
+  </si>
+  <si>
+    <t>SIS</t>
+  </si>
+  <si>
+    <t>University of Bari Aldo Moro</t>
+  </si>
+  <si>
+    <t>lesions</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/flipscores/index.html</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2403.02065</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,11 +416,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -431,9 +445,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -471,7 +485,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -577,7 +591,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -719,7 +733,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,29 +741,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1796875" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.26953125" customWidth="1"/>
-    <col min="10" max="10" width="9.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" customWidth="1"/>
-    <col min="12" max="12" width="14.453125" customWidth="1"/>
-    <col min="16" max="16" width="25.7265625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -831,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -872,7 +886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -913,7 +927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -954,7 +968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -995,7 +1009,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1036,7 +1050,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1077,7 +1091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1118,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1159,7 +1173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1200,7 +1214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1293,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1320,7 +1334,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1361,7 +1375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1416,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -1443,7 +1457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1484,11 +1498,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>44630</v>
       </c>
       <c r="C19" s="2">
@@ -1521,15 +1535,15 @@
       <c r="L19" t="s">
         <v>18</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>44753</v>
       </c>
       <c r="C20" s="2">
@@ -1562,18 +1576,18 @@
       <c r="L20" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>44797</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.375</v>
       </c>
       <c r="D21" t="s">
@@ -1594,7 +1608,7 @@
       <c r="I21" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K21" t="s">
@@ -1607,14 +1621,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>44804</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.49305555555555602</v>
       </c>
       <c r="D22" t="s">
@@ -1648,7 +1662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>68</v>
       </c>
@@ -1676,7 +1690,7 @@
       <c r="I23" t="s">
         <v>72</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K23" t="s">
@@ -1689,7 +1703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -1723,14 +1737,14 @@
       <c r="K24" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="6" t="s">
         <v>84</v>
       </c>
       <c r="M24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>81</v>
       </c>
@@ -1764,14 +1778,14 @@
       <c r="K25" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="L25" s="6" t="s">
         <v>84</v>
       </c>
       <c r="M25" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -1805,14 +1819,14 @@
       <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="6" t="s">
         <v>84</v>
       </c>
       <c r="M26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -1853,7 +1867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -1894,7 +1908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1935,7 +1949,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>68</v>
       </c>
@@ -1963,7 +1977,7 @@
       <c r="I30" t="s">
         <v>72</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="6" t="s">
         <v>80</v>
       </c>
       <c r="K30" t="s">
@@ -1976,7 +1990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -2001,7 +2015,7 @@
       <c r="H31" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="6" t="s">
         <v>105</v>
       </c>
       <c r="J31" t="s">
@@ -2014,6 +2028,47 @@
         <v>106</v>
       </c>
       <c r="M31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45461</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" t="s">
         <v>18</v>
       </c>
     </row>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9D20E-97AC-8746-BACC-A3425C525931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4181F-7AB0-644E-885F-4BE5D425325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,7 +2053,7 @@
       <c r="G32" t="s">
         <v>110</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" t="s">
         <v>18</v>
       </c>
       <c r="I32" s="6" t="s">

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4181F-7AB0-644E-885F-4BE5D425325C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAC277A-3265-854E-B35F-C403B1F445A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,9 +351,6 @@
     <t>Smooth logistic mass univariate inference for MS lesion data using sign-flipping</t>
   </si>
   <si>
-    <t>SIS</t>
-  </si>
-  <si>
     <t>University of Bari Aldo Moro</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2403.02065</t>
+  </si>
+  <si>
+    <t>Società Italiana di Statistica</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2042,31 +2042,31 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
         <v>108</v>
-      </c>
-      <c r="E32" t="s">
-        <v>109</v>
       </c>
       <c r="F32" t="s">
         <v>30</v>
       </c>
       <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="J32" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" t="s">
         <v>111</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" t="s">
-        <v>112</v>
       </c>
       <c r="M32" t="s">
         <v>18</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAC277A-3265-854E-B35F-C403B1F445A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C35978-D959-3041-ADF4-25B5387C41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,7 +744,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2053,11 +2053,11 @@
       <c r="G32" t="s">
         <v>109</v>
       </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C35978-D959-3041-ADF4-25B5387C41C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237A4D0-80BF-5F42-BA39-C450F1385649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
   <si>
     <t>title</t>
   </si>
@@ -364,6 +364,24 @@
   </si>
   <si>
     <t>Società Italiana di Statistica</t>
+  </si>
+  <si>
+    <t>Localized Cluster Enhancement: TFCE revisited with valid error control</t>
+  </si>
+  <si>
+    <t>OHBM</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>StatBrainz</t>
+  </si>
+  <si>
+    <t>tfcetalk</t>
   </si>
 </sst>
 </file>
@@ -741,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2072,6 +2090,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45469</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F237A4D0-80BF-5F42-BA39-C450F1385649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193781F-C5C5-2144-BD72-8342ABC0C176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="122">
   <si>
     <t>title</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>tfcetalk</t>
+  </si>
+  <si>
+    <t>Transforming heavy tailed data improves the power of inference</t>
+  </si>
+  <si>
+    <t>King's College London</t>
+  </si>
+  <si>
+    <t>transforms</t>
   </si>
 </sst>
 </file>
@@ -759,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2131,6 +2140,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45641</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>

--- a/matlab/talkdata.xlsx
+++ b/matlab/talkdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdavenport/Documents/Other/website/matlab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193781F-C5C5-2144-BD72-8342ABC0C176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FF57A3-B1D7-DC47-97D8-3A5AA5430037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="124">
   <si>
     <t>title</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>transforms</t>
+  </si>
+  <si>
+    <t>tfcetalk2</t>
+  </si>
+  <si>
+    <t>Big Data Institute</t>
   </si>
 </sst>
 </file>
@@ -768,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2181,6 +2187,47 @@
         <v>18</v>
       </c>
     </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45719</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D35" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L26" r:id="rId1" xr:uid="{F2792CC9-C75F-4E31-9A12-D700753B1C12}"/>
